--- a/experimental_data/GEC/Tygstrup1962.xlsx
+++ b/experimental_data/GEC/Tygstrup1962.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="58">
   <si>
     <t>Tygstrup1962 – Determination of the hepatic galactose elimination capacity after a single intravenous injection in man</t>
   </si>
@@ -29,6 +29,12 @@
     <t>Infusion</t>
   </si>
   <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
     <t>case</t>
   </si>
   <si>
@@ -84,6 +90,12 @@
   </si>
   <si>
     <t>gInfusion</t>
+  </si>
+  <si>
+    <t>tyg1962</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
   <si>
     <t>JH</t>
@@ -296,7 +308,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -350,10 +362,6 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -433,16 +441,16 @@
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>262440</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>224280</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>414360</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>375840</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -457,8 +465,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6764760" y="3771360"/>
-          <a:ext cx="4215960" cy="4987800"/>
+          <a:off x="9164880" y="4151160"/>
+          <a:ext cx="4215600" cy="4987440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -472,16 +480,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>144360</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>132480</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>474480</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>462240</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -496,8 +504,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9084960" y="455040"/>
-          <a:ext cx="4394160" cy="3094560"/>
+          <a:off x="12324240" y="264600"/>
+          <a:ext cx="4393800" cy="3094200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -517,10 +525,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100">
-      <selection activeCell="F60" activeCellId="0" pane="topLeft" sqref="F60"/>
+      <selection activeCell="J39" activeCellId="0" pane="topLeft" sqref="A29:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -540,19 +548,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3"/>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.85" outlineLevel="0" r="5">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="5">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -586,8 +594,14 @@
       <c r="K5" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="6">
+      <c r="L5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="6">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -595,10 +609,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>17</v>
@@ -619,42 +633,54 @@
         <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>-48.5</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>14.9</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>644</v>
       </c>
-      <c r="H7" s="8" t="n">
-        <f aca="false">G7/180</f>
+      <c r="J7" s="8" t="n">
+        <f aca="false">I7/180</f>
         <v>3.57777777777778</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="K7" s="0" t="n">
         <v>954</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>31.8</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>0.86</v>
       </c>
     </row>
@@ -663,358 +689,418 @@
         <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="D8" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="F8" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="G8" s="0" t="n">
         <v>-55.2</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="H8" s="0" t="n">
         <v>13.5</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="I8" s="0" t="n">
         <v>642</v>
       </c>
-      <c r="H8" s="8" t="n">
-        <f aca="false">G8/180</f>
+      <c r="J8" s="8" t="n">
+        <f aca="false">I8/180</f>
         <v>3.56666666666667</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="K8" s="0" t="n">
         <v>585</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="L8" s="0" t="n">
         <v>-0.9</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="M8" s="0" t="n">
         <v>0.91</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="G9" s="0" t="n">
         <v>-50.5</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="H9" s="0" t="n">
         <v>13.1</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="I9" s="0" t="n">
         <v>590</v>
       </c>
-      <c r="H9" s="8" t="n">
-        <f aca="false">G9/180</f>
+      <c r="J9" s="8" t="n">
+        <f aca="false">I9/180</f>
         <v>3.27777777777778</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="K9" s="0" t="n">
         <v>603</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="L9" s="0" t="n">
         <v>2.3</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="M9" s="0" t="n">
         <v>0.97</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="G10" s="0" t="n">
         <v>-56.7</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>11.9</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>582</v>
       </c>
-      <c r="H10" s="8" t="n">
-        <f aca="false">G10/180</f>
+      <c r="J10" s="8" t="n">
+        <f aca="false">I10/180</f>
         <v>3.23333333333333</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="K10" s="0" t="n">
         <v>571</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="L10" s="0" t="n">
         <v>-4.4</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="G11" s="0" t="n">
         <v>-51.1</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>12.7</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="I11" s="0" t="n">
         <v>574</v>
       </c>
-      <c r="H11" s="8" t="n">
-        <f aca="false">G11/180</f>
+      <c r="J11" s="8" t="n">
+        <f aca="false">I11/180</f>
         <v>3.18888888888889</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="K11" s="0" t="n">
         <v>558</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>6.2</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>0.86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="0" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="G12" s="0" t="n">
         <v>-52.9</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="I12" s="0" t="n">
         <v>533</v>
       </c>
-      <c r="H12" s="8" t="n">
-        <f aca="false">G12/180</f>
+      <c r="J12" s="8" t="n">
+        <f aca="false">I12/180</f>
         <v>2.96111111111111</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="K12" s="0" t="n">
         <v>492</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="L12" s="0" t="n">
         <v>9.5</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>0.77</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="G13" s="0" t="n">
         <v>-50.6</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="H13" s="0" t="n">
         <v>11.4</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="I13" s="0" t="n">
         <v>477</v>
       </c>
-      <c r="H13" s="8" t="n">
-        <f aca="false">G13/180</f>
+      <c r="J13" s="8" t="n">
+        <f aca="false">I13/180</f>
         <v>2.65</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="K13" s="0" t="n">
         <v>443</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>-2.2</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>0.98</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="F14" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="G14" s="0" t="n">
         <v>-30.2</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="H14" s="0" t="n">
         <v>15.6</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="I14" s="0" t="n">
         <v>430</v>
       </c>
-      <c r="H14" s="8" t="n">
-        <f aca="false">G14/180</f>
+      <c r="J14" s="8" t="n">
+        <f aca="false">I14/180</f>
         <v>2.38888888888889</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="K14" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="L14" s="0" t="n">
         <v>-9</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>1.04</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="0" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="F15" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="G15" s="0" t="n">
         <v>-26.5</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="H15" s="0" t="n">
         <v>15.2</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="I15" s="0" t="n">
         <v>381</v>
       </c>
-      <c r="H15" s="8" t="n">
-        <f aca="false">G15/180</f>
+      <c r="J15" s="8" t="n">
+        <f aca="false">I15/180</f>
         <v>2.11666666666667</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="K15" s="0" t="n">
         <v>551</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="L15" s="0" t="n">
         <v>21.1</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>0.79</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="D16" s="9" t="n">
+      <c r="F16" s="9" t="n">
         <v>58</v>
       </c>
-      <c r="E16" s="9" t="n">
+      <c r="G16" s="9" t="n">
         <v>-36.6</v>
       </c>
-      <c r="F16" s="9" t="n">
+      <c r="H16" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="G16" s="9" t="n">
+      <c r="I16" s="9" t="n">
         <v>354</v>
       </c>
-      <c r="H16" s="10" t="n">
-        <f aca="false">G16/180</f>
+      <c r="J16" s="10" t="n">
+        <f aca="false">I16/180</f>
         <v>1.96666666666667</v>
       </c>
-      <c r="I16" s="9" t="n">
+      <c r="K16" s="9" t="n">
         <v>265</v>
       </c>
-      <c r="J16" s="9" t="n">
+      <c r="L16" s="9" t="n">
         <v>2.2</v>
       </c>
-      <c r="K16" s="9" t="n">
+      <c r="M16" s="9" t="n">
         <v>0.7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="9" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="9" t="n">
         <v>42</v>
       </c>
-      <c r="D17" s="9" t="n">
+      <c r="F17" s="9" t="n">
         <v>86</v>
       </c>
-      <c r="E17" s="9" t="n">
+      <c r="G17" s="9" t="n">
         <v>-16.7</v>
       </c>
-      <c r="F17" s="9" t="n">
+      <c r="H17" s="9" t="n">
         <v>19.6</v>
       </c>
-      <c r="G17" s="9" t="n">
+      <c r="I17" s="9" t="n">
         <v>251</v>
       </c>
-      <c r="H17" s="10" t="n">
-        <f aca="false">G17/180</f>
+      <c r="J17" s="10" t="n">
+        <f aca="false">I17/180</f>
         <v>1.39444444444444</v>
       </c>
-      <c r="I17" s="9" t="n">
+      <c r="K17" s="9" t="n">
         <v>216</v>
       </c>
-      <c r="J17" s="9" t="n">
+      <c r="L17" s="9" t="n">
         <v>0.4</v>
       </c>
-      <c r="K17" s="9" t="n">
+      <c r="M17" s="9" t="n">
         <v>0.84</v>
       </c>
     </row>
@@ -1022,10 +1108,10 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19"/>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="20">
       <c r="A20" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -1039,47 +1125,43 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="21">
       <c r="A21" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="22">
       <c r="A22" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24"/>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25"/>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
       <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.85" outlineLevel="0" r="27">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -1099,6 +1181,12 @@
       </c>
       <c r="H27" s="7" t="s">
         <v>11</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="28">
@@ -1109,10 +1197,10 @@
         <v>5</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>17</v>
@@ -1126,301 +1214,373 @@
       <c r="H28" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="I28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="A29" s="0" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="D29" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F29" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="G29" s="0" t="n">
         <v>-50.6</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="H29" s="0" t="n">
         <v>14.2</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="I29" s="0" t="n">
         <v>609</v>
       </c>
-      <c r="H29" s="8" t="n">
-        <f aca="false">G29/180</f>
+      <c r="J29" s="8" t="n">
+        <f aca="false">I29/180</f>
         <v>3.38333333333333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="0" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="F30" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="G30" s="0" t="n">
         <v>-44.9</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="H30" s="0" t="n">
         <v>14.1</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="I30" s="0" t="n">
         <v>596</v>
       </c>
-      <c r="H30" s="8" t="n">
-        <f aca="false">G30/180</f>
+      <c r="J30" s="8" t="n">
+        <f aca="false">I30/180</f>
         <v>3.31111111111111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
       <c r="A31" s="0" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="F31" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="G31" s="0" t="n">
         <v>-44.7</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="H31" s="0" t="n">
         <v>13.6</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="I31" s="0" t="n">
         <v>563</v>
       </c>
-      <c r="H31" s="8" t="n">
-        <f aca="false">G31/180</f>
+      <c r="J31" s="8" t="n">
+        <f aca="false">I31/180</f>
         <v>3.12777777777778</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
       <c r="A32" s="0" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="F32" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="G32" s="0" t="n">
         <v>-35.4</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="H32" s="0" t="n">
         <v>16.6</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="I32" s="0" t="n">
         <v>512</v>
       </c>
-      <c r="H32" s="8" t="n">
-        <f aca="false">G32/180</f>
+      <c r="J32" s="8" t="n">
+        <f aca="false">I32/180</f>
         <v>2.84444444444444</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="F33" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="G33" s="0" t="n">
         <v>-56.9</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="H33" s="0" t="n">
         <v>10.1</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="I33" s="0" t="n">
         <v>505</v>
       </c>
-      <c r="H33" s="8" t="n">
-        <f aca="false">G33/180</f>
+      <c r="J33" s="8" t="n">
+        <f aca="false">I33/180</f>
         <v>2.80555555555556</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
       <c r="A34" s="0" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="F34" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="G34" s="0" t="n">
         <v>-39</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="H34" s="0" t="n">
         <v>12.1</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="I34" s="0" t="n">
         <v>407</v>
       </c>
-      <c r="H34" s="8" t="n">
-        <f aca="false">G34/180</f>
+      <c r="J34" s="8" t="n">
+        <f aca="false">I34/180</f>
         <v>2.26111111111111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
       <c r="A35" s="0" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="F35" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="G35" s="0" t="n">
         <v>-30.8</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="H35" s="0" t="n">
         <v>14.3</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="I35" s="0" t="n">
         <v>392</v>
       </c>
-      <c r="H35" s="8" t="n">
-        <f aca="false">G35/180</f>
+      <c r="J35" s="8" t="n">
+        <f aca="false">I35/180</f>
         <v>2.17777777777778</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
       <c r="A36" s="0" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="F36" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="G36" s="0" t="n">
         <v>-33.9</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="H36" s="0" t="n">
         <v>12.8</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="I36" s="0" t="n">
         <v>367</v>
       </c>
-      <c r="H36" s="8" t="n">
-        <f aca="false">G36/180</f>
+      <c r="J36" s="8" t="n">
+        <f aca="false">I36/180</f>
         <v>2.03888888888889</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
       <c r="A37" s="0" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="F37" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="G37" s="0" t="n">
         <v>-31.7</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="H37" s="0" t="n">
         <v>12.9</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="I37" s="0" t="n">
         <v>341</v>
       </c>
-      <c r="H37" s="8" t="n">
-        <f aca="false">G37/180</f>
+      <c r="J37" s="8" t="n">
+        <f aca="false">I37/180</f>
         <v>1.89444444444444</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
       <c r="A38" s="9" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="D38" s="9" t="n">
+      <c r="F38" s="9" t="n">
         <v>44</v>
       </c>
-      <c r="E38" s="9" t="n">
+      <c r="G38" s="9" t="n">
         <v>-23.6</v>
       </c>
-      <c r="F38" s="9" t="n">
+      <c r="H38" s="9" t="n">
         <v>13.5</v>
       </c>
-      <c r="G38" s="9" t="n">
+      <c r="I38" s="9" t="n">
         <v>302</v>
       </c>
-      <c r="H38" s="10" t="n">
-        <f aca="false">G38/180</f>
+      <c r="J38" s="10" t="n">
+        <f aca="false">I38/180</f>
         <v>1.67777777777778</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
       <c r="A39" s="9" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="D39" s="9" t="n">
+      <c r="F39" s="9" t="n">
         <v>75</v>
       </c>
-      <c r="E39" s="9" t="n">
+      <c r="G39" s="9" t="n">
         <v>-14.9</v>
       </c>
-      <c r="F39" s="9" t="n">
+      <c r="H39" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="G39" s="9" t="n">
+      <c r="I39" s="9" t="n">
         <v>252</v>
       </c>
-      <c r="H39" s="10" t="n">
-        <f aca="false">G39/180</f>
+      <c r="J39" s="10" t="n">
+        <f aca="false">I39/180</f>
         <v>1.4</v>
       </c>
     </row>
